--- a/reports/BlpData_20200630.xlsx
+++ b/reports/BlpData_20200630.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.zhang\AppData\Local\Programs\Git\git\risk_report\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangst\git\risk_report\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA3BC11-02C1-4169-B340-D1B6075B5B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706469A7-0248-4413-AEF3-248CE040A695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="265">
   <si>
     <t>ID</t>
   </si>
@@ -825,6 +825,9 @@
   </si>
   <si>
     <t>Govt</t>
+  </si>
+  <si>
+    <t>SNAT</t>
   </si>
 </sst>
 </file>
@@ -1151,17 +1154,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3F7C0B-129A-47DC-AEFC-BB006EACB92A}">
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2263,7 +2266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -2491,7 +2494,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -3099,7 +3102,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -3251,7 +3254,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -3555,7 +3558,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -3669,7 +3672,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -3821,7 +3824,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>87</v>
       </c>
@@ -3870,10 +3873,10 @@
         <v>263</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>192</v>
@@ -3901,7 +3904,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>99</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>101</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>102</v>
       </c>
@@ -4509,7 +4512,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4737,7 +4740,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4851,7 +4854,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5611,7 +5614,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5915,7 +5918,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -6181,7 +6184,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -6219,7 +6222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -6675,7 +6678,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -6941,7 +6944,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -7017,7 +7020,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -7207,7 +7210,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -7245,7 +7248,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -7359,7 +7362,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -7397,7 +7400,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -7701,7 +7704,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>189</v>
       </c>
